--- a/263-fhir-requête-imposer-échappement-du-+-en-requête-instant/ig/StructureDefinition-sdo-task.xlsx
+++ b/263-fhir-requête-imposer-échappement-du-+-en-requête-instant/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-22T14:20:30+00:00</t>
+    <t>2024-11-22T17:29:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
